--- a/tocheck/FloraPanamasp6prob.xlsx
+++ b/tocheck/FloraPanamasp6prob.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -917,58 +917,6 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Oxalidales</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Elaeocarpaceae</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sloanea</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>medusula</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>K. Schum. &amp; Pittier</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>sloam3</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Sloanea medusula</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>sloam2</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>sloam3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
